--- a/src/results/Logiciels_Analyse_Classement.xlsx
+++ b/src/results/Logiciels_Analyse_Classement.xlsx
@@ -648,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.285714285714283</v>
+        <v>8.285714285714285</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>10</v>
@@ -668,7 +668,7 @@
         <v>17</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.285714285714279</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>10</v>
@@ -715,16 +715,16 @@
         </is>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>10.00000000000001</v>
+        <v>10</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>7</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="O6" s="4" t="n">
         <v>11.45</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="S6" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U6" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>7</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="W6" s="4" t="n">
         <v>11.45</v>
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="K7" s="4" t="n">
-        <v>17.14285714285714</v>
+        <v>17</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7</v>
+        <v>7.142857142857145</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>10</v>
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="S7" s="4" t="n">
-        <v>17.14285714285714</v>
+        <v>17</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>7</v>
+        <v>7.142857142857146</v>
       </c>
       <c r="U7" s="4" t="n">
         <v>10</v>
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.85714285714286</v>
+        <v>13</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>10</v>
+        <v>10.85714285714286</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>10</v>
@@ -875,10 +875,10 @@
         </is>
       </c>
       <c r="S8" s="4" t="n">
-        <v>13</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>10.85714285714286</v>
+        <v>10</v>
       </c>
       <c r="U8" s="4" t="n">
         <v>10</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.14285714285714</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>13</v>
@@ -1007,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>9.299999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="R10" s="3" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>7.14285714285714</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="U10" s="4" t="n">
         <v>13</v>
@@ -1027,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>9.299999999999999</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="K11" s="4" t="n">
-        <v>3.285714285714281</v>
+        <v>3.285714285714284</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>17</v>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="S11" s="4" t="n">
-        <v>3.285714285714281</v>
+        <v>3.285714285714284</v>
       </c>
       <c r="T11" s="4" t="n">
         <v>17</v>
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="K12" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L12" s="4" t="n">
         <v>12.5</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>11.5</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>7.000000000000001</v>
+        <v>7</v>
       </c>
       <c r="O12" s="4" t="n">
         <v>9.100000000000001</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="4" t="n">
-        <v>7.000000000000001</v>
+        <v>7</v>
       </c>
       <c r="W12" s="4" t="n">
         <v>9.100000000000001</v>
@@ -1511,7 +1511,7 @@
         <v>13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13</v>
+        <v>13.00000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>13</v>
@@ -1531,10 +1531,10 @@
         <v>13</v>
       </c>
       <c r="U4" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="V4" s="4" t="n">
         <v>13.00000000000001</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>13</v>
       </c>
       <c r="W4" s="4" t="n">
         <v>13</v>
@@ -1578,7 +1578,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.285714285714281</v>
+        <v>8.285714285714279</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>10</v>
@@ -1598,7 +1598,7 @@
         <v>17</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.285714285714294</v>
+        <v>8.285714285714279</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>10</v>
@@ -1645,10 +1645,10 @@
         </is>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>10</v>
@@ -1665,16 +1665,16 @@
         </is>
       </c>
       <c r="S6" s="4" t="n">
-        <v>12.00000000000001</v>
+        <v>10</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>13</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="U6" s="4" t="n">
         <v>10</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>7.000000000000012</v>
+        <v>7.00000000000001</v>
       </c>
       <c r="W6" s="4" t="n">
         <v>11.45</v>
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="K7" s="4" t="n">
-        <v>17.14285714285714</v>
+        <v>17</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7</v>
+        <v>7.142857142857136</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>10</v>
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="S7" s="4" t="n">
-        <v>17.14285714285715</v>
+        <v>17</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>7</v>
+        <v>7.142857142857135</v>
       </c>
       <c r="U7" s="4" t="n">
         <v>10</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.85714285714286</v>
+        <v>13</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>10</v>
+        <v>10.85714285714286</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
         <v>13.85714285714286</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>10</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="U8" s="4" t="n">
         <v>10</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="S10" s="4" t="n">
-        <v>10</v>
+        <v>10.14285714285715</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>7.142857142857139</v>
+        <v>7</v>
       </c>
       <c r="U10" s="4" t="n">
         <v>13</v>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="K11" s="4" t="n">
-        <v>6.499999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>19.21428571428571</v>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="S11" s="4" t="n">
-        <v>3.28571428571428</v>
+        <v>3.285714285714285</v>
       </c>
       <c r="T11" s="4" t="n">
         <v>17</v>
@@ -2138,7 +2138,7 @@
         <v>15.92857142857143</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>9.5</v>
+        <v>9.499999999999998</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>7</v>
@@ -2864,7 +2864,7 @@
         </is>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0.8803846662078043</v>
+        <v>0.8930039428247146</v>
       </c>
     </row>
     <row r="17">
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0.0007733648685005237</v>
+        <v>0.0005030002857088689</v>
       </c>
     </row>
     <row r="18">
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="K18" s="4" t="n">
-        <v>0.721125263058815</v>
+        <v>0.7360699299651778</v>
       </c>
     </row>
     <row r="19">
@@ -2894,7 +2894,7 @@
         </is>
       </c>
       <c r="K19" s="4" t="n">
-        <v>0.004841331697369757</v>
+        <v>0.003765770133544256</v>
       </c>
     </row>
   </sheetData>

--- a/src/results/Logiciels_Analyse_Classement.xlsx
+++ b/src/results/Logiciels_Analyse_Classement.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashlane" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Avast" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Electre-tri-Couches" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Modèle Original</t>
   </si>
@@ -117,6 +118,48 @@
   </si>
   <si>
     <t>Programme Lineaire - Score global maximal pour chaque produit</t>
+  </si>
+  <si>
+    <t>Modèle lambda 0.55</t>
+  </si>
+  <si>
+    <t>Modèle lambda 0.75</t>
+  </si>
+  <si>
+    <t>Note_magazine</t>
+  </si>
+  <si>
+    <t>Classement Optimiste</t>
+  </si>
+  <si>
+    <t>Classement Pessimiste</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Bon</t>
+  </si>
+  <si>
+    <t>Acceptable</t>
+  </si>
+  <si>
+    <t>Insuffisant</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Très Insuffisant</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Tx Optimiste</t>
+  </si>
+  <si>
+    <t>Tx Pessimiste</t>
   </si>
 </sst>
 </file>
@@ -710,10 +753,10 @@
         <v>15</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>17</v>
+        <v>17.14285714285715</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7.142857142857145</v>
+        <v>7</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>10</v>
@@ -748,7 +791,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.85714285714285</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="L8" s="4" t="n">
         <v>10</v>
@@ -824,10 +867,10 @@
         <v>18</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>10.14285714285714</v>
+        <v>10</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7</v>
+        <v>7.14285714285714</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>13</v>
@@ -862,10 +905,10 @@
         <v>19</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>0.2857142857142898</v>
+        <v>3.285714285714287</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>7</v>
@@ -900,10 +943,10 @@
         <v>21</v>
       </c>
       <c r="K12" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L12" s="4" t="n">
         <v>12.5</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>11.5</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
@@ -1143,7 +1186,7 @@
         <v>16.5</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.5</v>
+        <v>16.49999999999999</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>8</v>
@@ -1497,7 +1540,7 @@
         <v>7</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>9.249999999999998</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1647,7 +1690,7 @@
         <v>7</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>9.099999999999998</v>
+        <v>9.1</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>22</v>
@@ -1729,7 +1772,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>-1.47</v>
+        <v>-1.470000000000002</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>27</v>
@@ -2225,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>9.249999999999998</v>
+        <v>9.25</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>18</v>
@@ -2411,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="W13" s="4" t="n">
-        <v>9.099999999999998</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2419,7 +2462,7 @@
         <v>23</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>0.9235862696337803</v>
+        <v>0.6483453283521901</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>23</v>
@@ -2433,7 +2476,7 @@
         <v>24</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>0.0001359168097324068</v>
+        <v>0.04259953984956121</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>24</v>
@@ -2447,7 +2490,7 @@
         <v>25</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>0.828078671210825</v>
+        <v>0.5980568180967069</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>25</v>
@@ -2461,7 +2504,7 @@
         <v>26</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>0.001116926714212638</v>
+        <v>0.01857613899295652</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>26</v>
@@ -2475,7 +2518,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>-1.47</v>
+        <v>-1.534999999999999</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>27</v>
@@ -2500,7 +2543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="B2:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2525,7 +2568,6 @@
     <col customWidth="1" max="15" min="15" width="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15"/>
     <row r="2" spans="1:15">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2952,8 +2994,6 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="14" spans="1:15"/>
-    <row r="15" spans="1:15"/>
     <row r="16" spans="1:15">
       <c r="J16" s="5" t="s">
         <v>23</v>
@@ -3001,4 +3041,365 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="4" min="4" width="20"/>
+    <col customWidth="1" max="5" min="5" width="20"/>
+    <col customWidth="1" max="6" min="6" width="20"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="20"/>
+    <col customWidth="1" max="9" min="9" width="20"/>
+    <col customWidth="1" max="10" min="10" width="20"/>
+    <col customWidth="1" max="11" min="11" width="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11"/>
+    <row r="2" spans="1:11">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11"/>
+    <row r="15" spans="1:11"/>
+    <row r="16" spans="1:11">
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>